--- a/Documents/Sprint-1/MINF-Sprint-1-Planning.xlsx
+++ b/Documents/Sprint-1/MINF-Sprint-1-Planning.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PUF\FakeBook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7058E0-77F4-4944-BE79-A407B50E2F5A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{91072E35-CDD7-4C3B-80D2-801DC6F3C8F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,23 +433,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A8677B-6455-4A35-9DFE-717FBD081E4E}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O7"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43178</v>
       </c>
@@ -501,8 +495,38 @@
       <c r="O1" s="1">
         <v>43196</v>
       </c>
+      <c r="P1" s="1">
+        <v>43199</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43200</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43201</v>
+      </c>
+      <c r="S1" s="1">
+        <v>43202</v>
+      </c>
+      <c r="T1" s="1">
+        <v>43203</v>
+      </c>
+      <c r="U1" s="1">
+        <v>43206</v>
+      </c>
+      <c r="V1" s="1">
+        <v>43207</v>
+      </c>
+      <c r="W1" s="1">
+        <v>43208</v>
+      </c>
+      <c r="X1" s="1">
+        <v>43209</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>43210</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -514,14 +538,21 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -533,14 +564,21 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -550,16 +588,26 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -569,16 +617,26 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -588,14 +646,21 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -605,19 +670,26 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="D3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
